--- a/Detectron2Predictor/evaluation.xlsx
+++ b/Detectron2Predictor/evaluation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26992" windowHeight="11916"/>
+    <workbookView windowWidth="26438" windowHeight="11620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>Train set</t>
   </si>
@@ -22,6 +22,15 @@
     <t>Train set size</t>
   </si>
   <si>
+    <t>Iteration</t>
+  </si>
+  <si>
+    <t>Base lr</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
     <t>Val set</t>
   </si>
   <si>
@@ -43,35 +52,78 @@
     <t>dict</t>
   </si>
   <si>
+    <t>Model 1: BASELINE. Trained on clear images only</t>
+  </si>
+  <si>
+    <t>combined_clear</t>
+  </si>
+  <si>
+    <t>(10000, 15000, 18000, 19000)</t>
+  </si>
+  <si>
+    <t>{'mIoU': 78.28585824570477, 'fwIoU': 92.052867733272, 'IoU-Unlabeled': nan, 'IoU-Building': 91.14292023262044, 'IoU-Fence': 55.58187903514033, 'IoU-Pedestrian': 78.19016428702159, 'IoU-Pole': 63.004664319012505, 'IoU-Road': 97.49336335094819, 'IoU-SideWalk': 81.10813695306716, 'IoU-Vegetation': 89.80324040106063, 'IoU-Vehicles': 90.8429151493157, 'IoU-Wall': 78.95824406178778, 'IoU-TrafficSign': 65.85147663152895, 'IoU-Sky': 97.67894482985749, 'IoU-TrafficLight': 57.76395618885448, 'IoU-Terrain': 70.29625175394695, 'mACC': 85.82440555894568, 'pACC': 95.69625026425808, 'ACC-Unlabeled': nan, 'ACC-Building': 95.51335081445337, 'ACC-Fence': 72.3921957158516, 'ACC-Pedestrian': 88.58580716397275, 'ACC-Pole': 75.84612060892674, 'ACC-Road': 98.89744650772604, 'ACC-SideWalk': 88.5091265949066, 'ACC-Vegetation': 95.89544411273053, 'ACC-Vehicles': 95.81415401149815, 'ACC-Wall': 86.69357899462553, 'ACC-TrafficSign': 74.4114079564222, 'ACC-Sky': 98.74030028742247, 'ACC-TrafficLight': 67.1458844455177, 'ACC-Terrain': 77.27245505224035}</t>
+  </si>
+  <si>
+    <t>combined_rain</t>
+  </si>
+  <si>
+    <t>{'mIoU': 69.96006760871725, 'fwIoU': 81.44156715383038, 'IoU-Unlabeled': nan, 'IoU-Building': 70.6019469934778, 'IoU-Fence': 49.92546321804034, 'IoU-Pedestrian': 75.39865869124974, 'IoU-Pole': 58.01153214759864, 'IoU-Road': 96.4940695338559, 'IoU-SideWalk': 76.14247267888065, 'IoU-Vegetation': 84.95057550458215, 'IoU-Vehicles': 86.22096950395063, 'IoU-Wall': 70.57794269742547, 'IoU-TrafficSign': 62.269844647227835, 'IoU-Sky': 60.55201643113287, 'IoU-TrafficLight': 53.94235213753197, 'IoU-Terrain': 64.3930347283704, 'mACC': 80.35266716540649, 'pACC': 89.29826067579212, 'ACC-Unlabeled': nan, 'ACC-Building': 95.4469471730256, 'ACC-Fence': 67.70869172573212, 'ACC-Pedestrian': 87.29955784823456, 'ACC-Pole': 72.83551940318496, 'ACC-Road': 98.48048824496396, 'ACC-SideWalk': 84.50758203712651, 'ACC-Vegetation': 90.51051251579476, 'ACC-Vehicles': 94.92124681153788, 'ACC-Wall': 85.55181178446607, 'ACC-TrafficSign': 70.86145208093326, 'ACC-Sky': 61.41213660931902, 'ACC-TrafficLight': 62.526432999787026, 'ACC-Terrain': 72.5222939161786}</t>
+  </si>
+  <si>
+    <t>carla_rain</t>
+  </si>
+  <si>
+    <t>{'mIoU': 65.67647694551255, 'fwIoU': 75.47290465243381, 'IoU-Unlabeled': nan, 'IoU-Building': 47.12579954782866, 'IoU-Fence': 52.26618599865457, 'IoU-Pedestrian': 55.608330761013434, 'IoU-Pole': 64.16853086057375, 'IoU-Road': 97.62759983178837, 'IoU-SideWalk': 78.83077345149219, 'IoU-Vegetation': 80.75632969145272, 'IoU-Vehicles': 76.26709430331783, 'IoU-Wall': 78.5777341509152, 'IoU-TrafficSign': 39.74891719541626, 'IoU-Sky': 54.12341375585433, 'IoU-TrafficLight': 60.31082788063832, 'IoU-Terrain': 68.38266286271747, 'mACC': 79.87760271235432, 'pACC': 84.14446931692989, 'ACC-Unlabeled': nan, 'ACC-Building': 96.14700468168074, 'ACC-Fence': 71.38098908111917, 'ACC-Pedestrian': 69.73151968612447, 'ACC-Pole': 79.18347884007673, 'ACC-Road': 98.75900436203602, 'ACC-SideWalk': 88.28661739474228, 'ACC-Vegetation': 88.97866726514631, 'ACC-Vehicles': 92.88350559811654, 'ACC-Wall': 93.63696524699905, 'ACC-TrafficSign': 57.27824414734975, 'ACC-Sky': 54.37806641904569, 'ACC-TrafficLight': 71.75052147211434, 'ACC-Terrain': 76.01425106605488}</t>
+  </si>
+  <si>
+    <t>cityscapes_rain</t>
+  </si>
+  <si>
+    <t>{'mIoU': 69.53688040596563, 'fwIoU': 87.79754748473934, 'IoU-Unlabeled': nan, 'IoU-Building': 87.7486204497072, 'IoU-Fence': 48.69174362180266, 'IoU-Pedestrian': 75.99006429463098, 'IoU-Pole': 48.14498954670965, 'IoU-Road': 95.565700657835, 'IoU-SideWalk': 74.62060187837929, 'IoU-Vegetation': 86.1928357056267, 'IoU-Vehicles': 87.68687980429041, 'IoU-Wall': 38.3746187817767, 'IoU-TrafficSign': 62.65340525226703, 'IoU-Sky': 91.36611208521997, 'IoU-TrafficLight': 50.54629101434187, 'IoU-Terrain': 56.39758218496572, 'mACC': 78.3726556324382, 'pACC': 93.24983240854898, 'ACC-Unlabeled': nan, 'ACC-Building': 95.1751199959063, 'ACC-Fence': 65.79368007109132, 'ACC-Pedestrian': 87.783196518408, 'ACC-Pole': 62.18748406586748, 'ACC-Road': 98.24866430259843, 'ACC-SideWalk': 82.3982685422697, 'ACC-Vegetation': 90.94499462180627, 'ACC-Vehicles': 95.1887406613181, 'ACC-Wall': 49.97958532987089, 'ACC-TrafficSign': 71.04349143893859, 'ACC-Sky': 97.06293166590136, 'ACC-TrafficLight': 57.79860417395024, 'ACC-Terrain': 65.23976183376996}</t>
+  </si>
+  <si>
+    <t>Model 2: IMPROVED. Trained on clear + rain images</t>
+  </si>
+  <si>
     <t>combined_all</t>
   </si>
   <si>
-    <t>{'mIoU': 56.064416001210496, 'fwIoU': 83.31568913595996, 'IoU-Unlabeled': nan, 'IoU-Building': 79.59476024785049, 'IoU-Fence': 24.337970684917106, 'IoU-Pedestrian': 41.62674009899974, 'IoU-Pole': 33.13297126701077, 'IoU-Road': 94.40224102339576, 'IoU-SideWalk': 64.55997927740998, 'IoU-Vegetation': 80.30340825107672, 'IoU-Vehicles': 74.36371208192377, 'IoU-Wall': 61.203661936907295, 'IoU-TrafficSign': 18.63694662951262, 'IoU-Sky': 94.7220813997912, 'IoU-TrafficLight': 20.966795543174424, 'IoU-Terrain': 40.986139573766614, 'mACC': 64.93721110373085, 'pACC': 90.28451992261485, 'ACC-Unlabeled': nan, 'ACC-Building': 90.78306296564176, 'ACC-Fence': 36.19670146617639, 'ACC-Pedestrian': 53.671946237681254, 'ACC-Pole': 44.3306727110603, 'ACC-Road': 97.36431252645238, 'ACC-SideWalk': 78.0357739045019, 'ACC-Vegetation': 90.663746180766, 'ACC-Vehicles': 86.11024827486159, 'ACC-Wall': 75.20277859064807, 'ACC-TrafficSign': 21.293917974856264, 'ACC-Sky': 97.34128208824106, 'ACC-TrafficLight': 24.57824587175656, 'ACC-Terrain': 48.61105555585761}</t>
-  </si>
-  <si>
-    <t>combined_rain</t>
-  </si>
-  <si>
-    <t>{'mIoU': 55.47706295043462, 'fwIoU': 82.59333462171196, 'IoU-Unlabeled': nan, 'IoU-Building': 78.78698939748561, 'IoU-Fence': 23.075865064140537, 'IoU-Pedestrian': 41.3788524073414, 'IoU-Pole': 32.03331282724328, 'IoU-Road': 94.1337461928832, 'IoU-SideWalk': 63.35615305452894, 'IoU-Vegetation': 78.60628064314416, 'IoU-Vehicles': 73.75361704436827, 'IoU-Wall': 60.568110434963614, 'IoU-TrafficSign': 18.15516704158763, 'IoU-Sky': 93.879222249868, 'IoU-TrafficLight': 22.973960690401128, 'IoU-Terrain': 40.50054130769436, 'mACC': 64.53798979275713, 'pACC': 89.83681415941854, 'ACC-Unlabeled': nan, 'ACC-Building': 90.22112403878265, 'ACC-Fence': 34.802635341669465, 'ACC-Pedestrian': 54.06878551007951, 'ACC-Pole': 42.57063549297607, 'ACC-Road': 97.31608607471665, 'ACC-SideWalk': 76.47554617355226, 'ACC-Vegetation': 89.6068205125867, 'ACC-Vehicles': 85.9891463350933, 'ACC-Wall': 74.20284830776932, 'ACC-TrafficSign': 20.692103806433877, 'ACC-Sky': 97.00961075365947, 'ACC-TrafficLight': 27.681520573160785, 'ACC-Terrain': 48.357004385362714}</t>
-  </si>
-  <si>
-    <t>combined_clear</t>
-  </si>
-  <si>
-    <t>{'mIoU': 56.64937643279646, 'fwIoU': 84.04542481565264, 'IoU-Unlabeled': nan, 'IoU-Building': 80.40901794721037, 'IoU-Fence': 25.63610833305279, 'IoU-Pedestrian': 41.88137606661801, 'IoU-Pole': 34.21791247221859, 'IoU-Road': 94.67200373963949, 'IoU-SideWalk': 65.76050501402251, 'IoU-Vegetation': 82.03371650222869, 'IoU-Vehicles': 74.9822281139663, 'IoU-Wall': 61.835483805475164, 'IoU-TrafficSign': 19.116346845463404, 'IoU-Sky': 95.57433184212087, 'IoU-TrafficLight': 18.84457315603116, 'IoU-Terrain': 41.47828978830653, 'mACC': 65.33643241470457, 'pACC': 90.73222568581116, 'ACC-Unlabeled': nan, 'ACC-Building': 91.34500189250087, 'ACC-Fence': 37.59076759068333, 'ACC-Pedestrian': 53.275106965282994, 'ACC-Pole': 46.09070992914454, 'ACC-Road': 97.4125389781881, 'ACC-SideWalk': 79.59600163545151, 'ACC-Vegetation': 91.72067184894529, 'ACC-Vehicles': 86.23135021462988, 'ACC-Wall': 76.20270887352683, 'ACC-TrafficSign': 21.895732143278646, 'ACC-Sky': 97.67295342282264, 'ACC-TrafficLight': 21.474971170352333, 'ACC-Terrain': 48.865106726352515}</t>
+    <t>(20000, 30000, 36000, 38000)</t>
+  </si>
+  <si>
+    <t>{'mIoU': 78.6625633181354, 'fwIoU': 91.99055983083085, 'IoU-Unlabeled': nan, 'IoU-Building': 91.0967280079089, 'IoU-Fence': 55.789593130793925, 'IoU-Pedestrian': 78.62648724946503, 'IoU-Pole': 64.30441249514293, 'IoU-Road': 97.44708309520998, 'IoU-SideWalk': 81.18578530802822, 'IoU-Vegetation': 89.58222848796837, 'IoU-Vehicles': 90.04091784466944, 'IoU-Wall': 79.69836924694467, 'IoU-TrafficSign': 65.97659986133438, 'IoU-Sky': 97.3435721344175, 'IoU-TrafficLight': 59.919548047190254, 'IoU-Terrain': 71.60199822668665, 'mACC': 86.41043632443662, 'pACC': 95.6643482425, 'ACC-Unlabeled': nan, 'ACC-Building': 95.40961364874072, 'ACC-Fence': 73.05973863045591, 'ACC-Pedestrian': 89.57898718718744, 'ACC-Pole': 77.21876006127084, 'ACC-Road': 98.83454647394002, 'ACC-SideWalk': 88.19989632263598, 'ACC-Vegetation': 95.76543830280852, 'ACC-Vehicles': 95.20465282969076, 'ACC-Wall': 86.97447063103141, 'ACC-TrafficSign': 75.37654312057374, 'ACC-Sky': 98.54995702075358, 'ACC-TrafficLight': 69.25559138648944, 'ACC-Terrain': 79.9074766020979}</t>
+  </si>
+  <si>
+    <t>{'mIoU': 78.97913400334787, 'fwIoU': 92.20900946699878, 'IoU-Unlabeled': nan, 'IoU-Building': 91.26811197643127, 'IoU-Fence': 56.34264494287926, 'IoU-Pedestrian': 78.99500641219139, 'IoU-Pole': 64.70633784228467, 'IoU-Road': 97.53407054887424, 'IoU-SideWalk': 81.72513089228869, 'IoU-Vegetation': 89.97292764191995, 'IoU-Vehicles': 90.4035310771481, 'IoU-Wall': 79.63321369700913, 'IoU-TrafficSign': 66.36248456583067, 'IoU-Sky': 97.6238296444928, 'IoU-TrafficLight': 60.166165435784634, 'IoU-Terrain': 71.99528736638744, 'mACC': 86.69840042872512, 'pACC': 95.78302023203847, 'ACC-Unlabeled': nan, 'ACC-Building': 95.50924598886962, 'ACC-Fence': 73.88563010157293, 'ACC-Pedestrian': 89.77256500256439, 'ACC-Pole': 77.91772448811068, 'ACC-Road': 98.82429768875515, 'ACC-SideWalk': 88.96130547830639, 'ACC-Vegetation': 95.88042607615613, 'ACC-Vehicles': 95.4122553298098, 'ACC-Wall': 86.6750765510312, 'ACC-TrafficSign': 75.84815381370548, 'ACC-Sky': 98.69106773922186, 'ACC-TrafficLight': 69.32422076103562, 'ACC-Terrain': 80.37723655428735}</t>
+  </si>
+  <si>
+    <t>{'mIoU': 78.34611305495268, 'fwIoU': 91.77256399425832, 'IoU-Unlabeled': nan, 'IoU-Building': 90.92563018626242, 'IoU-Fence': 55.2350155548269, 'IoU-Pedestrian': 78.25981650273623, 'IoU-Pole': 63.90024298901636, 'IoU-Road': 97.36026865633433, 'IoU-SideWalk': 80.64430369808966, 'IoU-Vegetation': 89.19398060157, 'IoU-Vehicles': 89.67963600446835, 'IoU-Wall': 79.76318337404908, 'IoU-TrafficSign': 65.59040204139707, 'IoU-Sky': 97.06412229919353, 'IoU-TrafficLight': 59.674460863924295, 'IoU-Terrain': 71.20840694251649, 'mACC': 86.12247222014815, 'pACC': 95.54567625296154, 'ACC-Unlabeled': nan, 'ACC-Building': 95.30998130861181, 'ACC-Fence': 72.2338471593389, 'ACC-Pedestrian': 89.38540937181047, 'ACC-Pole': 76.519795634431, 'ACC-Road': 98.84479525912488, 'ACC-SideWalk': 87.43848716696556, 'ACC-Vegetation': 95.65045052946093, 'ACC-Vehicles': 94.99705032957172, 'ACC-Wall': 87.2738647110316, 'ACC-TrafficSign': 74.90493242744202, 'ACC-Sky': 98.4088463022853, 'ACC-TrafficLight': 69.18696201194328, 'ACC-Terrain': 79.43771664990847}</t>
+  </si>
+  <si>
+    <t>{'mIoU': 78.25165118877639, 'fwIoU': 93.77574606680467, 'IoU-Unlabeled': nan, 'IoU-Building': 90.87196948865308, 'IoU-Fence': 61.11490657304175, 'IoU-Pedestrian': 65.01807117465938, 'IoU-Pole': 71.38999087951021, 'IoU-Road': 98.41923528484847, 'IoU-SideWalk': 85.74962769462455, 'IoU-Vegetation': 85.30022871994774, 'IoU-Vehicles': 87.31138604085355, 'IoU-Wall': 88.3664368120218, 'IoU-TrafficSign': 42.47055650454014, 'IoU-Sky': 97.65857062886623, 'IoU-TrafficLight': 66.70339680943323, 'IoU-Terrain': 76.89708884309309, 'mACC': 86.52514750722126, 'pACC': 96.65269329490425, 'ACC-Unlabeled': nan, 'ACC-Building': 95.99731629418861, 'ACC-Fence': 78.5058465358447, 'ACC-Pedestrian': 79.76771426950171, 'ACC-Pole': 81.35441431755169, 'ACC-Road': 99.19112175276408, 'ACC-SideWalk': 92.42079341387482, 'ACC-Vegetation': 93.25035584424712, 'ACC-Vehicles': 93.0382370429127, 'ACC-Wall': 94.6136175234712, 'ACC-TrafficSign': 59.83809490908673, 'ACC-Sky': 98.7307295064427, 'ACC-TrafficLight': 75.49151169590402, 'ACC-Terrain': 82.62716448808642}</t>
+  </si>
+  <si>
+    <t>{'mIoU': 73.23926669451434, 'fwIoU': 90.31591130891353, 'IoU-Unlabeled': nan, 'IoU-Building': 90.94669273711068, 'IoU-Fence': 52.250778317208955, 'IoU-Pedestrian': 78.65218640498038, 'IoU-Pole': 52.841612543940755, 'IoU-Road': 96.49054277491216, 'IoU-SideWalk': 77.82103494659538, 'IoU-Vegetation': 90.3260462716582, 'IoU-Vehicles': 89.99260814625464, 'IoU-Wall': 45.916928894918385, 'IoU-TrafficSign': 65.97387087263152, 'IoU-Sky': 94.1023945223635, 'IoU-TrafficLight': 56.20018392795326, 'IoU-Terrain': 60.5955866681585, 'mACC': 81.72870926700864, 'pACC': 94.69689194136949, 'ACC-Unlabeled': nan, 'ACC-Building': 95.04309419354664, 'ACC-Fence': 68.96315561626731, 'ACC-Pedestrian': 89.650179360724, 'ACC-Pole': 68.41023049115866, 'ACC-Road': 98.556529093615, 'ACC-SideWalk': 84.6575537255951, 'ACC-Vegetation': 96.33119696453151, 'ACC-Vehicles': 95.25418332742149, 'ACC-Wall': 54.981175354575505, 'ACC-TrafficSign': 75.10685508388833, 'ACC-Sky': 96.77744487563487, 'ACC-TrafficLight': 65.95554984377384, 'ACC-Terrain': 72.78607254038012}</t>
+  </si>
+  <si>
+    <t>combined: carla + cityscapes</t>
+  </si>
+  <si>
+    <t>all: clear + rain</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,18 +147,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -126,8 +192,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -136,12 +216,42 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -149,8 +259,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,59 +269,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,11 +312,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -248,187 +329,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,26 +532,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,17 +562,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,6 +606,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -544,165 +625,177 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1024,164 +1117,426 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.99152542372881" defaultRowHeight="13.95" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="8.99130434782609" defaultRowHeight="13.65"/>
   <cols>
-    <col min="1" max="1" width="14.8474576271186" customWidth="1"/>
-    <col min="2" max="2" width="12.5932203389831" customWidth="1"/>
-    <col min="3" max="3" width="14.8474576271186" customWidth="1"/>
-    <col min="4" max="4" width="10.9830508474576" customWidth="1"/>
+    <col min="1" max="1" width="14.8521739130435" customWidth="1"/>
+    <col min="2" max="2" width="12.5913043478261" customWidth="1"/>
+    <col min="3" max="4" width="8.62608695652174" customWidth="1"/>
+    <col min="5" max="5" width="27.3739130434783" customWidth="1"/>
+    <col min="6" max="6" width="14.8521739130435" customWidth="1"/>
+    <col min="7" max="7" width="10.9826086956522" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:12">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:9">
-      <c r="A2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2">
+    <row r="2" s="2" customFormat="1"/>
+    <row r="3" s="2" customFormat="1" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="1" spans="1:12">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3">
+        <v>5266</v>
+      </c>
+      <c r="C4" s="3">
+        <v>20000</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1872</v>
+      </c>
+      <c r="H4" s="6">
+        <v>78.2859</v>
+      </c>
+      <c r="I4" s="6">
+        <v>92.0529</v>
+      </c>
+      <c r="J4" s="6">
+        <v>85.8244</v>
+      </c>
+      <c r="K4" s="6">
+        <v>95.6963</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" s="4" customFormat="1" spans="1:12">
+      <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="4">
+        <v>5266</v>
+      </c>
+      <c r="C5" s="4">
+        <v>20000</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1872</v>
+      </c>
+      <c r="H5" s="7">
+        <v>69.9601</v>
+      </c>
+      <c r="I5" s="7">
+        <v>81.4416</v>
+      </c>
+      <c r="J5" s="7">
+        <v>80.3527</v>
+      </c>
+      <c r="K5" s="7">
+        <v>89.2983</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:12">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5266</v>
+      </c>
+      <c r="C6" s="2">
+        <v>20000</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1173</v>
+      </c>
+      <c r="H6" s="2">
+        <v>65.6765</v>
+      </c>
+      <c r="I6" s="2">
+        <v>75.4729</v>
+      </c>
+      <c r="J6" s="2">
+        <v>79.8776</v>
+      </c>
+      <c r="K6" s="2">
+        <v>84.1445</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:12">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5266</v>
+      </c>
+      <c r="C7" s="2">
+        <v>20000</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2">
+        <v>699</v>
+      </c>
+      <c r="H7" s="2">
+        <v>69.5369</v>
+      </c>
+      <c r="I7" s="2">
+        <v>87.7975</v>
+      </c>
+      <c r="J7" s="2">
+        <v>78.3727</v>
+      </c>
+      <c r="K7" s="2">
+        <v>93.2498</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1"/>
+    <row r="9" s="2" customFormat="1" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:12">
+      <c r="A10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="5">
         <v>10532</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="C10" s="5">
+        <v>40000</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="5">
         <v>3744</v>
       </c>
-      <c r="E2" s="2">
-        <v>56.0644</v>
-      </c>
-      <c r="F2" s="2">
-        <v>83.3157</v>
-      </c>
-      <c r="G2" s="2">
-        <v>64.9372</v>
-      </c>
-      <c r="H2" s="2">
-        <v>90.2845</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>10</v>
+      <c r="H10" s="2">
+        <v>78.6626</v>
+      </c>
+      <c r="I10" s="2">
+        <v>91.9906</v>
+      </c>
+      <c r="J10" s="2">
+        <v>86.4104</v>
+      </c>
+      <c r="K10" s="2">
+        <v>95.6643</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
+    <row r="11" s="3" customFormat="1" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="3">
         <v>10532</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3">
+      <c r="C11" s="3">
+        <v>40000</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="3">
         <v>1872</v>
       </c>
-      <c r="E3">
-        <v>55.4771</v>
-      </c>
-      <c r="F3">
-        <v>82.5933</v>
-      </c>
-      <c r="G3">
-        <v>64.538</v>
-      </c>
-      <c r="H3">
-        <v>89.8368</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
+      <c r="H11" s="6">
+        <v>78.9791</v>
+      </c>
+      <c r="I11" s="6">
+        <v>92.209</v>
+      </c>
+      <c r="J11" s="6">
+        <v>86.6984</v>
+      </c>
+      <c r="K11" s="6">
+        <v>95.783</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
+    <row r="12" s="4" customFormat="1" spans="1:12">
+      <c r="A12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="4">
         <v>10532</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4">
+      <c r="C12" s="4">
+        <v>40000</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="4">
         <v>1872</v>
       </c>
-      <c r="E4">
-        <v>56.6494</v>
-      </c>
-      <c r="F4">
-        <v>84.0454</v>
-      </c>
-      <c r="G4">
-        <v>65.3364</v>
-      </c>
-      <c r="H4">
-        <v>90.7322</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
+      <c r="H12" s="7">
+        <v>78.3461</v>
+      </c>
+      <c r="I12" s="7">
+        <v>91.7726</v>
+      </c>
+      <c r="J12" s="7">
+        <v>86.1225</v>
+      </c>
+      <c r="K12" s="7">
+        <v>95.5457</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>5266</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5">
-        <v>1872</v>
+    <row r="13" s="2" customFormat="1" spans="1:12">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2">
+        <v>10532</v>
+      </c>
+      <c r="C13" s="5">
+        <v>40000</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1173</v>
+      </c>
+      <c r="H13" s="2">
+        <v>78.2517</v>
+      </c>
+      <c r="I13" s="2">
+        <v>93.7757</v>
+      </c>
+      <c r="J13" s="2">
+        <v>86.5251</v>
+      </c>
+      <c r="K13" s="2">
+        <v>96.6527</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <v>5266</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6">
-        <v>1872</v>
+    <row r="14" s="2" customFormat="1" spans="1:12">
+      <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2">
+        <v>10532</v>
+      </c>
+      <c r="C14" s="5">
+        <v>40000</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="2">
+        <v>699</v>
+      </c>
+      <c r="H14" s="2">
+        <v>73.2393</v>
+      </c>
+      <c r="I14" s="2">
+        <v>90.3159</v>
+      </c>
+      <c r="J14" s="8">
+        <v>81.7287</v>
+      </c>
+      <c r="K14" s="2">
+        <v>94.6969</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
+    <row r="15" s="2" customFormat="1"/>
+    <row r="16" s="2" customFormat="1" spans="1:1">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="1:1">
+      <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Detectron2Predictor/evaluation.xlsx
+++ b/Detectron2Predictor/evaluation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26438" windowHeight="11620"/>
+    <workbookView windowWidth="27555" windowHeight="12165"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
   <si>
     <t>Train set</t>
   </si>
@@ -80,6 +80,42 @@
   </si>
   <si>
     <t>{'mIoU': 69.53688040596563, 'fwIoU': 87.79754748473934, 'IoU-Unlabeled': nan, 'IoU-Building': 87.7486204497072, 'IoU-Fence': 48.69174362180266, 'IoU-Pedestrian': 75.99006429463098, 'IoU-Pole': 48.14498954670965, 'IoU-Road': 95.565700657835, 'IoU-SideWalk': 74.62060187837929, 'IoU-Vegetation': 86.1928357056267, 'IoU-Vehicles': 87.68687980429041, 'IoU-Wall': 38.3746187817767, 'IoU-TrafficSign': 62.65340525226703, 'IoU-Sky': 91.36611208521997, 'IoU-TrafficLight': 50.54629101434187, 'IoU-Terrain': 56.39758218496572, 'mACC': 78.3726556324382, 'pACC': 93.24983240854898, 'ACC-Unlabeled': nan, 'ACC-Building': 95.1751199959063, 'ACC-Fence': 65.79368007109132, 'ACC-Pedestrian': 87.783196518408, 'ACC-Pole': 62.18748406586748, 'ACC-Road': 98.24866430259843, 'ACC-SideWalk': 82.3982685422697, 'ACC-Vegetation': 90.94499462180627, 'ACC-Vehicles': 95.1887406613181, 'ACC-Wall': 49.97958532987089, 'ACC-TrafficSign': 71.04349143893859, 'ACC-Sky': 97.06293166590136, 'ACC-TrafficLight': 57.79860417395024, 'ACC-Terrain': 65.23976183376996}</t>
+  </si>
+  <si>
+    <t>carla_rain_9</t>
+  </si>
+  <si>
+    <t>74.8040,78.1591,86.6567,85.9528</t>
+  </si>
+  <si>
+    <t>{'mIoU': 74.80402186790111, 'fwIoU': 78.15908002369984, 'IoU-Unlabeled': nan, 'IoU-Building': 46.77014633288039, 'IoU-Fence': 65.23299152936902, 'IoU-Pedestrian': 71.95979979851927, 'IoU-Pole': 67.91513793774189, 'IoU-Road': 98.39439267553057, 'IoU-SideWalk': 90.37582456146515, 'IoU-Vegetation': 86.9049675938123, 'IoU-Vehicles': 80.5835862121975, 'IoU-Wall': 89.52503403348727, 'IoU-TrafficSign': 76.4677417556483, 'IoU-Sky': 57.90676758240413, 'IoU-TrafficLight': 63.46371986664353, 'IoU-Terrain': 76.95217440301526, 'mACC': 86.65666024475135, 'pACC': 85.95277196205654, 'ACC-Unlabeled': nan, 'ACC-Building': 97.336690449136, 'ACC-Fence': 80.10851787937258, 'ACC-Pedestrian': 80.61317712811694, 'ACC-Pole': 80.32640002133905, 'ACC-Road': 99.17899531088655, 'ACC-SideWalk': 94.98306632884795, 'ACC-Vegetation': 92.39264829683188, 'ACC-Vehicles': 96.43538446191323, 'ACC-Wall': 96.85224228784847, 'ACC-TrafficSign': 86.40188941036556, 'ACC-Sky': 58.29135386045596, 'ACC-TrafficLight': 75.55553271047253, 'ACC-Terrain': 88.06068503618104}</t>
+  </si>
+  <si>
+    <t>74.9911,78.0249,87.3140,85.3880</t>
+  </si>
+  <si>
+    <t>{'mIoU': 74.99110240880289, 'fwIoU': 78.0248639765743, 'IoU-Unlabeled': nan, 'IoU-Building': 39.93946348695583, 'IoU-Fence': 67.38863400816524, 'IoU-Pedestrian': 74.94508391178279, 'IoU-Pole': 70.83351943429932, 'IoU-Road': 98.46214989558639, 'IoU-SideWalk': 89.77217395872836, 'IoU-Vegetation': 86.93356097223189, 'IoU-Vehicles': 79.06172775333076, 'IoU-Wall': 90.76423605627988, 'IoU-TrafficSign': 77.0722490826893, 'IoU-Sky': 57.403606227330485, 'IoU-TrafficLight': 65.11880976516468, 'IoU-Terrain': 77.18911676189252, 'mACC': 87.3139946247777, 'pACC': 85.38799284407443, 'ACC-Unlabeled': nan, 'ACC-Building': 97.11241217601338, 'ACC-Fence': 83.59787386702835, 'ACC-Pedestrian': 83.35654357906876, 'ACC-Pole': 82.29641565338956, 'ACC-Road': 99.25702561933227, 'ACC-SideWalk': 94.73258652631513, 'ACC-Vegetation': 92.29303403131036, 'ACC-Vehicles': 96.43900891907826, 'ACC-Wall': 97.18107262466964, 'ACC-TrafficSign': 86.85723212574939, 'ACC-Sky': 57.79386104398496, 'ACC-TrafficLight': 75.6718638568574, 'ACC-Terrain': 88.49300009931292}</t>
+  </si>
+  <si>
+    <t>carla_rain_derained</t>
+  </si>
+  <si>
+    <t>72.2125,76.0178,85.9514,83.8657</t>
+  </si>
+  <si>
+    <t>{'mIoU': 72.21248849049194, 'fwIoU': 76.01784606734718, 'IoU-Unlabeled': nan, 'IoU-Building': 38.31272317154658, 'IoU-Fence': 66.97386683523169, 'IoU-Pedestrian': 71.41010286546405, 'IoU-Pole': 68.73344633002182, 'IoU-Road': 98.08385288932946, 'IoU-SideWalk': 88.10371671048155, 'IoU-Vegetation': 84.09861391902791, 'IoU-Vehicles': 67.65212949912073, 'IoU-Wall': 88.11433407124866, 'IoU-TrafficSign': 74.81310083066298, 'IoU-Sky': 55.2452590687962, 'IoU-TrafficLight': 64.54364687549491, 'IoU-Terrain': 72.6775573099685, 'mACC': 85.95135666710904, 'pACC': 83.86568895745475, 'ACC-Unlabeled': nan, 'ACC-Building': 97.48500780727043, 'ACC-Fence': 81.22524885749996, 'ACC-Pedestrian': 84.34603300252626, 'ACC-Pole': 78.89035217017297, 'ACC-Road': 98.847081526239, 'ACC-SideWalk': 94.84475804977227, 'ACC-Vegetation': 88.5740910022068, 'ACC-Vehicles': 94.60384975752862, 'ACC-Wall': 95.26213769496992, 'ACC-TrafficSign': 83.01991503700084, 'ACC-Sky': 55.48944035517201, 'ACC-TrafficLight': 75.21525845825046, 'ACC-Terrain': 89.5644629538081}</t>
+  </si>
+  <si>
+    <t>carla_rain_9_H</t>
+  </si>
+  <si>
+    <t>67.7041,66.0990,82.9193,75.0320</t>
+  </si>
+  <si>
+    <t>carla_rain_derained_H</t>
+  </si>
+  <si>
+    <t>63.4744,62.0315,80.4627,71.5647</t>
   </si>
   <si>
     <t>Model 2: IMPROVED. Trained on clear + rain images</t>
@@ -118,9 +154,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -176,6 +212,98 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -184,137 +312,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,31 +365,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,19 +509,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,13 +527,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,109 +539,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,15 +556,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -558,6 +585,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,6 +639,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -602,171 +656,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1117,20 +1153,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.99130434782609" defaultRowHeight="13.65"/>
+  <sheetFormatPr defaultColWidth="8.99166666666667" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.8521739130435" customWidth="1"/>
-    <col min="2" max="2" width="12.5913043478261" customWidth="1"/>
-    <col min="3" max="4" width="8.62608695652174" customWidth="1"/>
-    <col min="5" max="5" width="27.3739130434783" customWidth="1"/>
-    <col min="6" max="6" width="14.8521739130435" customWidth="1"/>
-    <col min="7" max="7" width="10.9826086956522" customWidth="1"/>
+    <col min="1" max="1" width="14.85" customWidth="1"/>
+    <col min="2" max="2" width="12.5916666666667" customWidth="1"/>
+    <col min="3" max="4" width="8.625" customWidth="1"/>
+    <col min="5" max="5" width="27.375" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
+    <col min="7" max="7" width="10.9833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:12">
@@ -1330,213 +1366,280 @@
       </c>
     </row>
     <row r="8" s="2" customFormat="1"/>
-    <row r="9" s="2" customFormat="1" spans="1:1">
-      <c r="A9" s="1" t="s">
+    <row r="9" s="2" customFormat="1" spans="1:12">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" s="2" customFormat="1" spans="1:12">
-      <c r="A10" s="5" t="s">
+      <c r="G9" s="2">
+        <v>1317</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="5">
+      <c r="L9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1"/>
+    <row r="11" s="2" customFormat="1" spans="6:12">
+      <c r="F11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="6:12">
+      <c r="F12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1"/>
+    <row r="14" s="2" customFormat="1" spans="6:8">
+      <c r="F14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="6:8">
+      <c r="F15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1"/>
+    <row r="17" s="2" customFormat="1" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" spans="1:12">
+      <c r="A18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="5">
         <v>10532</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C18" s="5">
         <v>40000</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D18" s="5">
         <v>0.01</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="5">
+      <c r="E18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="5">
         <v>3744</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H18" s="2">
         <v>78.6626</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I18" s="2">
         <v>91.9906</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J18" s="2">
         <v>86.4104</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K18" s="2">
         <v>95.6643</v>
       </c>
-      <c r="L10" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" s="3" customFormat="1" spans="1:12">
-      <c r="A11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="3">
+      <c r="L18" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" s="3" customFormat="1" spans="1:12">
+      <c r="A19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="3">
         <v>10532</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C19" s="3">
         <v>40000</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D19" s="3">
         <v>0.01</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="6" t="s">
+      <c r="E19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G19" s="3">
         <v>1872</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H19" s="6">
         <v>78.9791</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I19" s="6">
         <v>92.209</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J19" s="6">
         <v>86.6984</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K19" s="6">
         <v>95.783</v>
       </c>
-      <c r="L11" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" s="4" customFormat="1" spans="1:12">
-      <c r="A12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="4">
+      <c r="L19" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" s="4" customFormat="1" spans="1:12">
+      <c r="A20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="4">
         <v>10532</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C20" s="4">
         <v>40000</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D20" s="4">
         <v>0.01</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="E20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G20" s="4">
         <v>1872</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H20" s="7">
         <v>78.3461</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I20" s="7">
         <v>91.7726</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J20" s="7">
         <v>86.1225</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K20" s="7">
         <v>95.5457</v>
       </c>
-      <c r="L12" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" s="2" customFormat="1" spans="1:12">
-      <c r="A13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="2">
+      <c r="L20" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="1:12">
+      <c r="A21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="2">
         <v>10532</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C21" s="5">
         <v>40000</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D21" s="2">
         <v>0.01</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="E21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G21" s="2">
         <v>1173</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H21" s="2">
         <v>78.2517</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I21" s="2">
         <v>93.7757</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J21" s="2">
         <v>86.5251</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K21" s="2">
         <v>96.6527</v>
       </c>
-      <c r="L13" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" s="2" customFormat="1" spans="1:12">
-      <c r="A14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="2">
+      <c r="L21" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="1:12">
+      <c r="A22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="2">
         <v>10532</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C22" s="5">
         <v>40000</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D22" s="2">
         <v>0.01</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="E22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G22" s="2">
         <v>699</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H22" s="2">
         <v>73.2393</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I22" s="2">
         <v>90.3159</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J22" s="8">
         <v>81.7287</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K22" s="2">
         <v>94.6969</v>
       </c>
-      <c r="L14" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" s="2" customFormat="1"/>
-    <row r="16" s="2" customFormat="1" spans="1:1">
-      <c r="A16" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" s="2" customFormat="1" spans="1:1">
-      <c r="A17" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" s="2" customFormat="1"/>
+      <c r="L22" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1"/>
+    <row r="24" s="2" customFormat="1" spans="1:1">
+      <c r="A24" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" spans="1:1">
+      <c r="A25" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
